--- a/public/DataGuru/Book11.xlsx
+++ b/public/DataGuru/Book11.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rahad\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\SIMPEOSIS\public\DataGuru\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F741B6D-C076-4A46-A218-F9CBF7D91560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D9E0F18-DCA1-4F11-80DB-2642359CB244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{F4920D54-E94C-4E2C-B28D-BF6405E15762}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{F4920D54-E94C-4E2C-B28D-BF6405E15762}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,19 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="187">
-  <si>
-    <t>Adi Sumantri</t>
-  </si>
-  <si>
-    <t>Guru</t>
-  </si>
-  <si>
-    <t>197902@gmail.com</t>
-  </si>
-  <si>
-    <t>197902262009021002</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="186">
   <si>
     <t>Ahmad Timbul Sholeh</t>
   </si>
@@ -586,6 +574,15 @@
   </si>
   <si>
     <t>201707123456789123</t>
+  </si>
+  <si>
+    <t>Kenzho E</t>
+  </si>
+  <si>
+    <t>260423@gmail.com</t>
+  </si>
+  <si>
+    <t>guru</t>
   </si>
 </sst>
 </file>
@@ -991,1064 +988,1068 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43931AFC-F851-4D0B-A15D-D9112B681A14}">
   <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44:A62"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="21.5703125" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>183</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1</v>
+        <v>185</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+        <v>184</v>
+      </c>
+      <c r="E1" s="1">
+        <v>123456789</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1</v>
+        <v>185</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>1</v>
+        <v>185</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>1</v>
+        <v>185</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>1</v>
+        <v>185</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>1</v>
+        <v>185</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>1</v>
+        <v>185</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>1</v>
+        <v>185</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>1</v>
+        <v>185</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>1</v>
+        <v>185</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>13</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>1</v>
+        <v>185</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>14</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>1</v>
+        <v>185</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>15</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>1</v>
+        <v>185</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>16</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>1</v>
+        <v>185</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>17</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>1</v>
+        <v>185</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>18</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>1</v>
+        <v>185</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>19</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>1</v>
+        <v>185</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>20</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>1</v>
+        <v>185</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>21</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>1</v>
+        <v>185</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>22</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>1</v>
+        <v>185</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>23</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>1</v>
+        <v>185</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>24</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>1</v>
+        <v>185</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>25</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>1</v>
+        <v>185</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>26</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>1</v>
+        <v>185</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>27</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>1</v>
+        <v>185</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>28</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>1</v>
+        <v>185</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>29</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>1</v>
+        <v>185</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>30</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>1</v>
+        <v>185</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>31</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>1</v>
+        <v>185</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>32</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>1</v>
+        <v>185</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>33</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>1</v>
+        <v>185</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>34</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>1</v>
+        <v>185</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>35</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>1</v>
+        <v>185</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>36</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>1</v>
+        <v>185</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>37</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>1</v>
+        <v>185</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>38</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>1</v>
+        <v>185</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>39</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>1</v>
+        <v>185</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>40</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>1</v>
+        <v>185</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>41</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>1</v>
+        <v>185</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>42</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>1</v>
+        <v>185</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>43</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>1</v>
+        <v>185</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>44</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>1</v>
+        <v>185</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>45</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>1</v>
+        <v>185</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>46</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>1</v>
+        <v>185</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>47</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>1</v>
+        <v>185</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>48</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>1</v>
+        <v>185</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>49</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>1</v>
+        <v>185</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>50</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>1</v>
+        <v>185</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>51</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>1</v>
+        <v>185</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>52</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>1</v>
+        <v>185</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>53</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>1</v>
+        <v>185</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>54</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>1</v>
+        <v>185</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>55</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>1</v>
+        <v>185</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>56</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>1</v>
+        <v>185</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>57</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>1</v>
+        <v>185</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>58</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>1</v>
+        <v>185</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>59</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>1</v>
+        <v>185</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>60</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>1</v>
+        <v>185</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>61</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>1</v>
+        <v>185</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>62</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>1</v>
+        <v>185</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>63</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>1</v>
+        <v>185</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/public/DataGuru/Book11.xlsx
+++ b/public/DataGuru/Book11.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\SIMPEOSIS\public\DataGuru\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D9E0F18-DCA1-4F11-80DB-2642359CB244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F40B5179-E625-40AF-BD64-8F9EC013EDD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{F4920D54-E94C-4E2C-B28D-BF6405E15762}"/>
   </bookViews>
@@ -986,21 +986,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43931AFC-F851-4D0B-A15D-D9112B681A14}">
-  <dimension ref="A1:E62"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C62"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="A2" sqref="A1:A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="21.5703125" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>183</v>
@@ -1008,16 +1008,16 @@
       <c r="C1" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="E1" s="1">
+      <c r="F1" s="1">
         <v>123456789</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>3</v>
+        <v>101</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -1025,16 +1025,16 @@
       <c r="C2" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>4</v>
+        <v>102</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
@@ -1042,16 +1042,16 @@
       <c r="C3" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>5</v>
+        <v>103</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
@@ -1059,16 +1059,16 @@
       <c r="C4" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>6</v>
+        <v>104</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>9</v>
@@ -1076,16 +1076,16 @@
       <c r="C5" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>7</v>
+        <v>105</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>12</v>
@@ -1093,16 +1093,16 @@
       <c r="C6" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>8</v>
+        <v>106</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>15</v>
@@ -1110,16 +1110,16 @@
       <c r="C7" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>9</v>
+        <v>107</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>18</v>
@@ -1127,16 +1127,16 @@
       <c r="C8" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>10</v>
+        <v>108</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>21</v>
@@ -1144,16 +1144,16 @@
       <c r="C9" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>11</v>
+        <v>109</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>24</v>
@@ -1161,16 +1161,16 @@
       <c r="C10" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>12</v>
+        <v>110</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>27</v>
@@ -1178,16 +1178,16 @@
       <c r="C11" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="E11" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>13</v>
+        <v>111</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>30</v>
@@ -1195,16 +1195,16 @@
       <c r="C12" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="E12" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>14</v>
+        <v>112</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>33</v>
@@ -1212,16 +1212,16 @@
       <c r="C13" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="E13" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>36</v>
@@ -1229,16 +1229,16 @@
       <c r="C14" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="E14" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>16</v>
+        <v>114</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>39</v>
@@ -1246,16 +1246,16 @@
       <c r="C15" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="E15" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>17</v>
+        <v>115</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>42</v>
@@ -1263,16 +1263,16 @@
       <c r="C16" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="E16" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>18</v>
+        <v>116</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>45</v>
@@ -1280,16 +1280,16 @@
       <c r="C17" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="E17" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>19</v>
+        <v>117</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>48</v>
@@ -1297,16 +1297,16 @@
       <c r="C18" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="E18" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>20</v>
+        <v>118</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>51</v>
@@ -1314,16 +1314,16 @@
       <c r="C19" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="E19" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>21</v>
+        <v>119</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>54</v>
@@ -1331,16 +1331,16 @@
       <c r="C20" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="E20" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>22</v>
+        <v>120</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>57</v>
@@ -1348,16 +1348,16 @@
       <c r="C21" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="E21" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>23</v>
+        <v>121</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>60</v>
@@ -1365,16 +1365,16 @@
       <c r="C22" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="E22" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>24</v>
+        <v>122</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>63</v>
@@ -1382,16 +1382,16 @@
       <c r="C23" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="E23" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>25</v>
+        <v>123</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>66</v>
@@ -1399,16 +1399,16 @@
       <c r="C24" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="E24" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="F24" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>26</v>
+        <v>124</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>69</v>
@@ -1416,16 +1416,16 @@
       <c r="C25" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="E25" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="F25" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>27</v>
+        <v>125</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>72</v>
@@ -1433,16 +1433,16 @@
       <c r="C26" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="E26" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="F26" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>28</v>
+        <v>126</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>75</v>
@@ -1450,16 +1450,16 @@
       <c r="C27" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="E27" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="F27" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>29</v>
+        <v>127</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>78</v>
@@ -1467,16 +1467,16 @@
       <c r="C28" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="E28" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="F28" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>30</v>
+        <v>128</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>81</v>
@@ -1484,16 +1484,16 @@
       <c r="C29" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="E29" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="F29" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>31</v>
+        <v>129</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>84</v>
@@ -1501,16 +1501,16 @@
       <c r="C30" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="E30" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="F30" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>32</v>
+        <v>130</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>87</v>
@@ -1518,16 +1518,16 @@
       <c r="C31" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="E31" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="F31" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>33</v>
+        <v>131</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>90</v>
@@ -1535,16 +1535,16 @@
       <c r="C32" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="E32" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="F32" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>34</v>
+        <v>132</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>93</v>
@@ -1552,16 +1552,16 @@
       <c r="C33" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="E33" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="F33" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>35</v>
+        <v>133</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>96</v>
@@ -1569,16 +1569,16 @@
       <c r="C34" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="E34" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="F34" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>36</v>
+        <v>134</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>99</v>
@@ -1586,16 +1586,16 @@
       <c r="C35" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="E35" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="F35" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>37</v>
+        <v>135</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>102</v>
@@ -1603,16 +1603,16 @@
       <c r="C36" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="E36" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="E36" s="6" t="s">
+      <c r="F36" s="6" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>38</v>
+        <v>136</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>105</v>
@@ -1620,16 +1620,16 @@
       <c r="C37" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="E37" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="E37" s="6" t="s">
+      <c r="F37" s="6" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>39</v>
+        <v>137</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>108</v>
@@ -1637,16 +1637,16 @@
       <c r="C38" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="E38" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="E38" s="6" t="s">
+      <c r="F38" s="6" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>40</v>
+        <v>138</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>111</v>
@@ -1654,16 +1654,16 @@
       <c r="C39" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="E39" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="E39" s="6" t="s">
+      <c r="F39" s="6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>41</v>
+        <v>139</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>114</v>
@@ -1671,16 +1671,16 @@
       <c r="C40" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="E40" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="E40" s="6" t="s">
+      <c r="F40" s="6" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>42</v>
+        <v>140</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>117</v>
@@ -1688,16 +1688,16 @@
       <c r="C41" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="E41" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="E41" s="6" t="s">
+      <c r="F41" s="6" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>43</v>
+        <v>141</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>120</v>
@@ -1705,16 +1705,16 @@
       <c r="C42" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="E42" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="E42" s="6" t="s">
+      <c r="F42" s="6" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>44</v>
+        <v>142</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>123</v>
@@ -1722,16 +1722,16 @@
       <c r="C43" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="E43" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="E43" s="6" t="s">
+      <c r="F43" s="6" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>45</v>
+        <v>143</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>126</v>
@@ -1739,16 +1739,16 @@
       <c r="C44" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="E44" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="E44" s="6" t="s">
+      <c r="F44" s="6" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>46</v>
+        <v>144</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>129</v>
@@ -1756,16 +1756,16 @@
       <c r="C45" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="E45" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="E45" s="6" t="s">
+      <c r="F45" s="6" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>47</v>
+        <v>145</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>132</v>
@@ -1773,16 +1773,16 @@
       <c r="C46" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="E46" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="E46" s="6" t="s">
+      <c r="F46" s="6" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>48</v>
+        <v>146</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>135</v>
@@ -1790,16 +1790,16 @@
       <c r="C47" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="E47" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="E47" s="6" t="s">
+      <c r="F47" s="6" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>49</v>
+        <v>147</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>138</v>
@@ -1807,16 +1807,16 @@
       <c r="C48" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="D48" s="5" t="s">
+      <c r="E48" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="E48" s="6" t="s">
+      <c r="F48" s="6" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>50</v>
+        <v>148</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>141</v>
@@ -1824,16 +1824,16 @@
       <c r="C49" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="D49" s="5" t="s">
+      <c r="E49" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="E49" s="6" t="s">
+      <c r="F49" s="6" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>51</v>
+        <v>149</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>144</v>
@@ -1841,16 +1841,16 @@
       <c r="C50" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="E50" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="E50" s="6" t="s">
+      <c r="F50" s="6" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>52</v>
+        <v>150</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>147</v>
@@ -1858,16 +1858,16 @@
       <c r="C51" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="D51" s="5" t="s">
+      <c r="E51" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="E51" s="6" t="s">
+      <c r="F51" s="6" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>53</v>
+        <v>151</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>150</v>
@@ -1875,16 +1875,16 @@
       <c r="C52" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="D52" s="5" t="s">
+      <c r="E52" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="E52" s="6" t="s">
+      <c r="F52" s="6" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>54</v>
+        <v>152</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>153</v>
@@ -1892,16 +1892,16 @@
       <c r="C53" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="D53" s="5" t="s">
+      <c r="E53" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="E53" s="6" t="s">
+      <c r="F53" s="6" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>55</v>
+        <v>153</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>156</v>
@@ -1909,16 +1909,16 @@
       <c r="C54" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="D54" s="5" t="s">
+      <c r="E54" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="E54" s="6" t="s">
+      <c r="F54" s="6" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>56</v>
+        <v>154</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>159</v>
@@ -1926,16 +1926,16 @@
       <c r="C55" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="D55" s="5" t="s">
+      <c r="E55" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="E55" s="6" t="s">
+      <c r="F55" s="6" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>57</v>
+        <v>155</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>162</v>
@@ -1943,16 +1943,16 @@
       <c r="C56" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="D56" s="5" t="s">
+      <c r="E56" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="E56" s="6" t="s">
+      <c r="F56" s="6" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>58</v>
+        <v>156</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>165</v>
@@ -1960,16 +1960,16 @@
       <c r="C57" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="D57" s="5" t="s">
+      <c r="E57" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="E57" s="6" t="s">
+      <c r="F57" s="6" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>59</v>
+        <v>157</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>168</v>
@@ -1977,16 +1977,16 @@
       <c r="C58" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="D58" s="5" t="s">
+      <c r="E58" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="E58" s="6" t="s">
+      <c r="F58" s="6" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>60</v>
+        <v>158</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>171</v>
@@ -1994,16 +1994,16 @@
       <c r="C59" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="D59" s="5" t="s">
+      <c r="E59" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="E59" s="6" t="s">
+      <c r="F59" s="6" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>61</v>
+        <v>159</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>174</v>
@@ -2011,16 +2011,16 @@
       <c r="C60" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="D60" s="5" t="s">
+      <c r="E60" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="E60" s="6" t="s">
+      <c r="F60" s="6" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>62</v>
+        <v>160</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>177</v>
@@ -2028,16 +2028,16 @@
       <c r="C61" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="D61" s="5" t="s">
+      <c r="E61" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="E61" s="6" t="s">
+      <c r="F61" s="6" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>63</v>
+        <v>161</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>180</v>
@@ -2045,77 +2045,77 @@
       <c r="C62" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="D62" s="5" t="s">
+      <c r="E62" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="E62" s="6" t="s">
+      <c r="F62" s="6" t="s">
         <v>182</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1" xr:uid="{56DA58CE-026E-44D8-993A-72896E7836C4}"/>
-    <hyperlink ref="D6" r:id="rId2" xr:uid="{2744B8A3-DF70-4E42-85E1-2EC9AD97FBAB}"/>
-    <hyperlink ref="D7" r:id="rId3" xr:uid="{0577675A-50A4-4B75-994E-1D2417302E78}"/>
-    <hyperlink ref="D8" r:id="rId4" xr:uid="{7802E3E5-41FD-40DD-878D-4FD7B3B07809}"/>
-    <hyperlink ref="D9" r:id="rId5" xr:uid="{01D603CB-69E2-4F82-B483-E3BEA5AE6260}"/>
-    <hyperlink ref="D10" r:id="rId6" xr:uid="{E3C162BB-74BC-4E1F-9D39-D983F9CFB96D}"/>
-    <hyperlink ref="D11" r:id="rId7" xr:uid="{523D5521-8942-409D-AA2C-D28DA20FBBE2}"/>
-    <hyperlink ref="D12" r:id="rId8" xr:uid="{49C92AEC-8F94-4703-B669-4F1F35F54017}"/>
-    <hyperlink ref="D13" r:id="rId9" xr:uid="{67181EC4-42F8-41AE-8106-A204A8F599E8}"/>
-    <hyperlink ref="D14" r:id="rId10" xr:uid="{C85DAC54-237D-4D5C-AB94-D032C6352108}"/>
-    <hyperlink ref="D15" r:id="rId11" xr:uid="{08B47A46-3EE5-4EEA-A0BD-73FD7E32E87C}"/>
-    <hyperlink ref="D16" r:id="rId12" xr:uid="{2DA3DF02-7DF3-455D-8F69-1214AB31BC5E}"/>
-    <hyperlink ref="D17" r:id="rId13" xr:uid="{65967AD1-29F4-4772-B562-865109A68122}"/>
-    <hyperlink ref="D18" r:id="rId14" xr:uid="{CD77D902-0ABE-4627-955F-F26E7112039B}"/>
-    <hyperlink ref="D19" r:id="rId15" xr:uid="{4024449E-0ADD-498E-AD43-AC7F935DF5A3}"/>
-    <hyperlink ref="D20" r:id="rId16" xr:uid="{CC238A37-7AAA-4077-A88C-DC6A958D5CD9}"/>
-    <hyperlink ref="D21" r:id="rId17" xr:uid="{FB523177-B96A-4C27-B401-53A80A83DB72}"/>
-    <hyperlink ref="D22" r:id="rId18" xr:uid="{5ED161D5-6678-480E-8F53-A2848242CD47}"/>
-    <hyperlink ref="D23" r:id="rId19" xr:uid="{76724A8E-D526-49AF-8948-4A7ABA48344D}"/>
-    <hyperlink ref="D24" r:id="rId20" xr:uid="{5742E9CD-EFB4-44F4-9537-A0A3F46595C2}"/>
-    <hyperlink ref="D25" r:id="rId21" xr:uid="{B8C35A6C-3CDD-40EB-81A5-73CABE2DA0DF}"/>
-    <hyperlink ref="D26" r:id="rId22" xr:uid="{CA26D04A-BFDD-475D-AA94-30932E89E30D}"/>
-    <hyperlink ref="D27" r:id="rId23" xr:uid="{5EA682E6-1362-45D0-8571-2A85AE87FFE0}"/>
-    <hyperlink ref="D28" r:id="rId24" xr:uid="{3717FD9A-2F2F-4738-AB41-80C4A3716972}"/>
-    <hyperlink ref="D29" r:id="rId25" xr:uid="{EA83E2AB-62D7-4ED1-9FF0-51E8EA14D084}"/>
-    <hyperlink ref="D30" r:id="rId26" xr:uid="{3D963950-1AEE-46F1-B496-F22CF4825243}"/>
-    <hyperlink ref="D31" r:id="rId27" xr:uid="{48991704-4B34-4BF4-9ADE-17EE6CDAB7B1}"/>
-    <hyperlink ref="D32" r:id="rId28" xr:uid="{B898AC45-A0D3-4FF2-B39E-64600419E457}"/>
-    <hyperlink ref="D33" r:id="rId29" xr:uid="{FF03E7C8-6808-4506-962A-7752344891EA}"/>
-    <hyperlink ref="D34" r:id="rId30" xr:uid="{A8E1946D-2FA7-4C1E-9707-C1497B69BE29}"/>
-    <hyperlink ref="D35" r:id="rId31" xr:uid="{FB79B422-B5E4-4BE7-9F36-E06B1EEF8B43}"/>
-    <hyperlink ref="D36" r:id="rId32" xr:uid="{3B6B5EEC-93D5-4B2B-B689-4A86AF887773}"/>
-    <hyperlink ref="D37" r:id="rId33" xr:uid="{2FF44D0E-4EFF-4B38-B184-34433E1799D1}"/>
-    <hyperlink ref="D38" r:id="rId34" xr:uid="{2721AA33-01C9-4CD7-86AF-CF9E89BBABF4}"/>
-    <hyperlink ref="D39" r:id="rId35" xr:uid="{F840D85F-3EAE-4270-ACF0-85D763192EB3}"/>
-    <hyperlink ref="D40" r:id="rId36" xr:uid="{EBC9593D-190E-457B-8794-26D4BE07FCC0}"/>
-    <hyperlink ref="D41" r:id="rId37" xr:uid="{E3503180-35D8-44EC-802C-B26AAE2DEC63}"/>
-    <hyperlink ref="D42" r:id="rId38" xr:uid="{526DBEF4-55E4-4E9E-B4B2-FFAB804BAC68}"/>
-    <hyperlink ref="D43" r:id="rId39" xr:uid="{09046988-32E4-4766-ABEA-83D6884661FA}"/>
-    <hyperlink ref="D44" r:id="rId40" xr:uid="{0C87CD23-8484-4A3B-9F1C-FA1FE6967708}"/>
-    <hyperlink ref="D45" r:id="rId41" xr:uid="{6112E603-7FB9-49DB-A313-114AB1357F79}"/>
-    <hyperlink ref="D46" r:id="rId42" xr:uid="{DAE2F994-6DEC-47FA-906D-867663D7F5BC}"/>
-    <hyperlink ref="D47" r:id="rId43" xr:uid="{D028502D-E07A-4E69-850D-68664D1D101C}"/>
-    <hyperlink ref="D48" r:id="rId44" xr:uid="{1889BCBA-314B-4AC4-BABB-F37927EC4DE8}"/>
-    <hyperlink ref="D49" r:id="rId45" xr:uid="{89559488-6126-4CB0-9A88-80241B7C9E29}"/>
-    <hyperlink ref="D50" r:id="rId46" xr:uid="{96D8F146-7913-4C8E-8A83-B28CAECFFCB5}"/>
-    <hyperlink ref="D51" r:id="rId47" xr:uid="{27655F2A-EE36-4584-A15C-AA9F1F0BB73E}"/>
-    <hyperlink ref="D52" r:id="rId48" xr:uid="{F0E38CF3-F47D-4879-97FF-CA0507FDE4B0}"/>
-    <hyperlink ref="D53" r:id="rId49" xr:uid="{CD112526-E7C8-4CD6-8511-0B37653D751E}"/>
-    <hyperlink ref="D54" r:id="rId50" xr:uid="{E2F29FE9-B41C-4A5F-BFCA-2CE4D197788F}"/>
-    <hyperlink ref="D55" r:id="rId51" xr:uid="{A086E007-B946-4D33-9C18-B02272019F79}"/>
-    <hyperlink ref="D56" r:id="rId52" xr:uid="{F717000D-AEA8-4507-8BA0-2A55D1EAF49F}"/>
-    <hyperlink ref="D57" r:id="rId53" xr:uid="{3D77A321-9641-4913-8983-A576DD5E7A9A}"/>
-    <hyperlink ref="D58" r:id="rId54" xr:uid="{692468B1-899F-45A7-9B78-DE32AFB0C580}"/>
-    <hyperlink ref="D59" r:id="rId55" xr:uid="{5F66F1B5-E590-4349-889A-69A89EA4AF80}"/>
-    <hyperlink ref="D60" r:id="rId56" xr:uid="{AEA3C234-E5A2-4AB6-A512-8C369186B76F}"/>
-    <hyperlink ref="D61" r:id="rId57" xr:uid="{EF912404-4962-4C7F-B431-DBE665105011}"/>
-    <hyperlink ref="D62" r:id="rId58" xr:uid="{8CB61F90-F72F-40D6-8E47-BC064CB77281}"/>
-    <hyperlink ref="D4" r:id="rId59" xr:uid="{E3093EE2-E218-49C0-B6FA-C2A76E902ECC}"/>
-    <hyperlink ref="D3" r:id="rId60" xr:uid="{FBAA588D-17A4-4ADC-B29E-34DEBC80F0A8}"/>
-    <hyperlink ref="D2" r:id="rId61" xr:uid="{7C6AC11D-CAF7-4ED4-80AB-B7613D3B630C}"/>
-    <hyperlink ref="D1" r:id="rId62" xr:uid="{27903C8A-A6F7-470B-A7C7-C7922C2F313E}"/>
+    <hyperlink ref="E5" r:id="rId1" xr:uid="{56DA58CE-026E-44D8-993A-72896E7836C4}"/>
+    <hyperlink ref="E6" r:id="rId2" xr:uid="{2744B8A3-DF70-4E42-85E1-2EC9AD97FBAB}"/>
+    <hyperlink ref="E7" r:id="rId3" xr:uid="{0577675A-50A4-4B75-994E-1D2417302E78}"/>
+    <hyperlink ref="E8" r:id="rId4" xr:uid="{7802E3E5-41FD-40DD-878D-4FD7B3B07809}"/>
+    <hyperlink ref="E9" r:id="rId5" xr:uid="{01D603CB-69E2-4F82-B483-E3BEA5AE6260}"/>
+    <hyperlink ref="E10" r:id="rId6" xr:uid="{E3C162BB-74BC-4E1F-9D39-D983F9CFB96D}"/>
+    <hyperlink ref="E11" r:id="rId7" xr:uid="{523D5521-8942-409D-AA2C-D28DA20FBBE2}"/>
+    <hyperlink ref="E12" r:id="rId8" xr:uid="{49C92AEC-8F94-4703-B669-4F1F35F54017}"/>
+    <hyperlink ref="E13" r:id="rId9" xr:uid="{67181EC4-42F8-41AE-8106-A204A8F599E8}"/>
+    <hyperlink ref="E14" r:id="rId10" xr:uid="{C85DAC54-237D-4D5C-AB94-D032C6352108}"/>
+    <hyperlink ref="E15" r:id="rId11" xr:uid="{08B47A46-3EE5-4EEA-A0BD-73FD7E32E87C}"/>
+    <hyperlink ref="E16" r:id="rId12" xr:uid="{2DA3DF02-7DF3-455D-8F69-1214AB31BC5E}"/>
+    <hyperlink ref="E17" r:id="rId13" xr:uid="{65967AD1-29F4-4772-B562-865109A68122}"/>
+    <hyperlink ref="E18" r:id="rId14" xr:uid="{CD77D902-0ABE-4627-955F-F26E7112039B}"/>
+    <hyperlink ref="E19" r:id="rId15" xr:uid="{4024449E-0ADD-498E-AD43-AC7F935DF5A3}"/>
+    <hyperlink ref="E20" r:id="rId16" xr:uid="{CC238A37-7AAA-4077-A88C-DC6A958D5CD9}"/>
+    <hyperlink ref="E21" r:id="rId17" xr:uid="{FB523177-B96A-4C27-B401-53A80A83DB72}"/>
+    <hyperlink ref="E22" r:id="rId18" xr:uid="{5ED161D5-6678-480E-8F53-A2848242CD47}"/>
+    <hyperlink ref="E23" r:id="rId19" xr:uid="{76724A8E-D526-49AF-8948-4A7ABA48344D}"/>
+    <hyperlink ref="E24" r:id="rId20" xr:uid="{5742E9CD-EFB4-44F4-9537-A0A3F46595C2}"/>
+    <hyperlink ref="E25" r:id="rId21" xr:uid="{B8C35A6C-3CDD-40EB-81A5-73CABE2DA0DF}"/>
+    <hyperlink ref="E26" r:id="rId22" xr:uid="{CA26D04A-BFDD-475D-AA94-30932E89E30D}"/>
+    <hyperlink ref="E27" r:id="rId23" xr:uid="{5EA682E6-1362-45D0-8571-2A85AE87FFE0}"/>
+    <hyperlink ref="E28" r:id="rId24" xr:uid="{3717FD9A-2F2F-4738-AB41-80C4A3716972}"/>
+    <hyperlink ref="E29" r:id="rId25" xr:uid="{EA83E2AB-62D7-4ED1-9FF0-51E8EA14D084}"/>
+    <hyperlink ref="E30" r:id="rId26" xr:uid="{3D963950-1AEE-46F1-B496-F22CF4825243}"/>
+    <hyperlink ref="E31" r:id="rId27" xr:uid="{48991704-4B34-4BF4-9ADE-17EE6CDAB7B1}"/>
+    <hyperlink ref="E32" r:id="rId28" xr:uid="{B898AC45-A0D3-4FF2-B39E-64600419E457}"/>
+    <hyperlink ref="E33" r:id="rId29" xr:uid="{FF03E7C8-6808-4506-962A-7752344891EA}"/>
+    <hyperlink ref="E34" r:id="rId30" xr:uid="{A8E1946D-2FA7-4C1E-9707-C1497B69BE29}"/>
+    <hyperlink ref="E35" r:id="rId31" xr:uid="{FB79B422-B5E4-4BE7-9F36-E06B1EEF8B43}"/>
+    <hyperlink ref="E36" r:id="rId32" xr:uid="{3B6B5EEC-93D5-4B2B-B689-4A86AF887773}"/>
+    <hyperlink ref="E37" r:id="rId33" xr:uid="{2FF44D0E-4EFF-4B38-B184-34433E1799D1}"/>
+    <hyperlink ref="E38" r:id="rId34" xr:uid="{2721AA33-01C9-4CD7-86AF-CF9E89BBABF4}"/>
+    <hyperlink ref="E39" r:id="rId35" xr:uid="{F840D85F-3EAE-4270-ACF0-85D763192EB3}"/>
+    <hyperlink ref="E40" r:id="rId36" xr:uid="{EBC9593D-190E-457B-8794-26D4BE07FCC0}"/>
+    <hyperlink ref="E41" r:id="rId37" xr:uid="{E3503180-35D8-44EC-802C-B26AAE2DEC63}"/>
+    <hyperlink ref="E42" r:id="rId38" xr:uid="{526DBEF4-55E4-4E9E-B4B2-FFAB804BAC68}"/>
+    <hyperlink ref="E43" r:id="rId39" xr:uid="{09046988-32E4-4766-ABEA-83D6884661FA}"/>
+    <hyperlink ref="E44" r:id="rId40" xr:uid="{0C87CD23-8484-4A3B-9F1C-FA1FE6967708}"/>
+    <hyperlink ref="E45" r:id="rId41" xr:uid="{6112E603-7FB9-49DB-A313-114AB1357F79}"/>
+    <hyperlink ref="E46" r:id="rId42" xr:uid="{DAE2F994-6DEC-47FA-906D-867663D7F5BC}"/>
+    <hyperlink ref="E47" r:id="rId43" xr:uid="{D028502D-E07A-4E69-850D-68664D1D101C}"/>
+    <hyperlink ref="E48" r:id="rId44" xr:uid="{1889BCBA-314B-4AC4-BABB-F37927EC4DE8}"/>
+    <hyperlink ref="E49" r:id="rId45" xr:uid="{89559488-6126-4CB0-9A88-80241B7C9E29}"/>
+    <hyperlink ref="E50" r:id="rId46" xr:uid="{96D8F146-7913-4C8E-8A83-B28CAECFFCB5}"/>
+    <hyperlink ref="E51" r:id="rId47" xr:uid="{27655F2A-EE36-4584-A15C-AA9F1F0BB73E}"/>
+    <hyperlink ref="E52" r:id="rId48" xr:uid="{F0E38CF3-F47D-4879-97FF-CA0507FDE4B0}"/>
+    <hyperlink ref="E53" r:id="rId49" xr:uid="{CD112526-E7C8-4CD6-8511-0B37653D751E}"/>
+    <hyperlink ref="E54" r:id="rId50" xr:uid="{E2F29FE9-B41C-4A5F-BFCA-2CE4D197788F}"/>
+    <hyperlink ref="E55" r:id="rId51" xr:uid="{A086E007-B946-4D33-9C18-B02272019F79}"/>
+    <hyperlink ref="E56" r:id="rId52" xr:uid="{F717000D-AEA8-4507-8BA0-2A55D1EAF49F}"/>
+    <hyperlink ref="E57" r:id="rId53" xr:uid="{3D77A321-9641-4913-8983-A576DD5E7A9A}"/>
+    <hyperlink ref="E58" r:id="rId54" xr:uid="{692468B1-899F-45A7-9B78-DE32AFB0C580}"/>
+    <hyperlink ref="E59" r:id="rId55" xr:uid="{5F66F1B5-E590-4349-889A-69A89EA4AF80}"/>
+    <hyperlink ref="E60" r:id="rId56" xr:uid="{AEA3C234-E5A2-4AB6-A512-8C369186B76F}"/>
+    <hyperlink ref="E61" r:id="rId57" xr:uid="{EF912404-4962-4C7F-B431-DBE665105011}"/>
+    <hyperlink ref="E62" r:id="rId58" xr:uid="{8CB61F90-F72F-40D6-8E47-BC064CB77281}"/>
+    <hyperlink ref="E4" r:id="rId59" xr:uid="{E3093EE2-E218-49C0-B6FA-C2A76E902ECC}"/>
+    <hyperlink ref="E3" r:id="rId60" xr:uid="{FBAA588D-17A4-4ADC-B29E-34DEBC80F0A8}"/>
+    <hyperlink ref="E2" r:id="rId61" xr:uid="{7C6AC11D-CAF7-4ED4-80AB-B7613D3B630C}"/>
+    <hyperlink ref="E1" r:id="rId62" xr:uid="{27903C8A-A6F7-470B-A7C7-C7922C2F313E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
